--- a/storage/app/tests/datasources/child.bronchitis.xlsx
+++ b/storage/app/tests/datasources/child.bronchitis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/seeding/tests/children/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/datasources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E7DAEE-38E1-984A-928A-BE6A4B588A2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AB91B36A-74E5-1140-92FB-6AA1D86F6AD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16560" xr2:uid="{ADC55D5A-37EF-B945-A827-9782EE03C94F}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217F90EC-8790-D243-A36D-16F2C99DFF13}">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView tabSelected="1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3329,6 +3329,3534 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>7.5600000000000005</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="S30" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="T30" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="N31" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>22.62</v>
+      </c>
+      <c r="S31" s="1">
+        <v>44.76</v>
+      </c>
+      <c r="T31" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="P32" s="1">
+        <v>3.4299999999999997</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>9.120000000000001</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="W32" s="1">
+        <v>29.42</v>
+      </c>
+      <c r="X32" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>19.61</v>
+      </c>
+      <c r="N33" s="1">
+        <v>12.82</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="R33" s="1">
+        <v>11.469999999999999</v>
+      </c>
+      <c r="S33" s="1">
+        <v>13.66</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>15.07</v>
+      </c>
+      <c r="W33" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9.24</v>
+      </c>
+      <c r="K34" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10.18</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="N34" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O34" s="1">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="P34" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5.1499999999999995</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="U34" s="1">
+        <v>3.9899999999999998</v>
+      </c>
+      <c r="V34" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>16.13</v>
+      </c>
+      <c r="N35" s="1">
+        <v>26.16</v>
+      </c>
+      <c r="O35" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="S35" s="1">
+        <v>23.78</v>
+      </c>
+      <c r="T35" s="1">
+        <v>23.369999999999997</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>49.51</v>
+      </c>
+      <c r="W36" s="1">
+        <v>17.75</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M37" s="1">
+        <v>28.71</v>
+      </c>
+      <c r="N37" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>34.94</v>
+      </c>
+      <c r="R37" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="W37" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="L38" s="1">
+        <v>15.82</v>
+      </c>
+      <c r="M38" s="1">
+        <v>21.83</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3.7900000000000005</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>13.15</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>28.939999999999998</v>
+      </c>
+      <c r="R38" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="X38" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>13.23</v>
+      </c>
+      <c r="P39" s="1">
+        <v>22.85</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>40.82</v>
+      </c>
+      <c r="W39" s="1">
+        <v>14.81</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="S40" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="T40" s="1">
+        <v>8</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>52.839999999999996</v>
+      </c>
+      <c r="W40" s="1">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="P41" s="1">
+        <v>20.57</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>6.72</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>37.980000000000004</v>
+      </c>
+      <c r="V41" s="1">
+        <v>21.77</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K42" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="L42" s="1">
+        <v>13.919999999999998</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>13.139999999999999</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>46.489999999999995</v>
+      </c>
+      <c r="R42" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>16.189999999999998</v>
+      </c>
+      <c r="M43" s="1">
+        <v>23.82</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2.9499999999999997</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>24.990000000000002</v>
+      </c>
+      <c r="R43" s="1">
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="W43" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="X43" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>23.65</v>
+      </c>
+      <c r="N44" s="1">
+        <v>6.59</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="R44" s="1">
+        <v>13</v>
+      </c>
+      <c r="S44" s="1">
+        <v>18</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="X44" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>41.78</v>
+      </c>
+      <c r="O45" s="1">
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>30.86</v>
+      </c>
+      <c r="W45" s="1">
+        <v>21.34</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>23.98</v>
+      </c>
+      <c r="R46" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>36.059999999999995</v>
+      </c>
+      <c r="V46" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>27.76</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>10.870000000000001</v>
+      </c>
+      <c r="R47" s="1">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="S47" s="1">
+        <v>17.36</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>23.880000000000003</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>16.37</v>
+      </c>
+      <c r="S48" s="1">
+        <v>29.439999999999998</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>28.310000000000002</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>9.5699999999999985</v>
+      </c>
+      <c r="P49" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="X49" s="1">
+        <v>43.95</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>9.1800000000000015</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>13.700000000000001</v>
+      </c>
+      <c r="O50" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="R50" s="1">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="S50" s="1">
+        <v>16.869999999999997</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>31.269999999999996</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>6.58</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="M51" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="R51" s="1">
+        <v>38.550000000000004</v>
+      </c>
+      <c r="S51" s="1">
+        <v>47.64</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="R52" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="S52" s="1">
+        <v>25.369999999999997</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>11.709999999999999</v>
+      </c>
+      <c r="N53" s="1">
+        <v>19.79</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>36.059999999999995</v>
+      </c>
+      <c r="T53" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>15.709999999999999</v>
+      </c>
+      <c r="P54" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>44.67</v>
+      </c>
+      <c r="V54" s="1">
+        <v>16.34</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>39.92</v>
+      </c>
+      <c r="R55" s="1">
+        <v>4.88</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>28.89</v>
+      </c>
+      <c r="W55" s="1">
+        <v>23.56</v>
+      </c>
+      <c r="X55" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9.84</v>
+      </c>
+      <c r="N56" s="1">
+        <v>37.480000000000004</v>
+      </c>
+      <c r="O56" s="1">
+        <v>4.5699999999999994</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="S56" s="1">
+        <v>25.119999999999997</v>
+      </c>
+      <c r="T56" s="1">
+        <v>21.52</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>4.9399999999999995</v>
+      </c>
+      <c r="S57" s="1">
+        <v>6.72</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>26.619999999999997</v>
+      </c>
+      <c r="V57" s="1">
+        <v>58.609999999999992</v>
+      </c>
+      <c r="W57" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>38.89</v>
+      </c>
+      <c r="R58" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>26.02</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>21.14</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>17.330000000000002</v>
+      </c>
+      <c r="O59" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="S59" s="1">
+        <v>30.570000000000004</v>
+      </c>
+      <c r="T59" s="1">
+        <v>10.639999999999999</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>16.34</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="N60" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="S60" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>22.97</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>15.93</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>26.77</v>
+      </c>
+      <c r="N61" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>20.45</v>
+      </c>
+      <c r="S61" s="1">
+        <v>38.79</v>
+      </c>
+      <c r="T61" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>16.91</v>
+      </c>
+      <c r="R62" s="1">
+        <v>16.54</v>
+      </c>
+      <c r="S62" s="1">
+        <v>19.18</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="X62" s="1">
+        <v>35.39</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>27.229999999999997</v>
+      </c>
+      <c r="R63" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="V63" s="1">
+        <v>52.15</v>
+      </c>
+      <c r="W63" s="1">
+        <v>7.5399999999999991</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>60.260000000000005</v>
+      </c>
+      <c r="U64" s="1">
+        <v>33.269999999999996</v>
+      </c>
+      <c r="V64" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>33.489999999999995</v>
+      </c>
+      <c r="O65" s="1">
+        <v>26.040000000000003</v>
+      </c>
+      <c r="P65" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>24.38</v>
+      </c>
+      <c r="U65" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
